--- a/XlsEpplus.Test/testfiles/errortype-checks.xlsx
+++ b/XlsEpplus.Test/testfiles/errortype-checks.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ErrDiv0</t>
   </si>
@@ -50,12 +50,33 @@
   </si>
   <si>
     <t>Err3Ref</t>
+  </si>
+  <si>
+    <t>ErrNV</t>
+  </si>
+  <si>
+    <t>ErrNum</t>
+  </si>
+  <si>
+    <t>Err3Num</t>
+  </si>
+  <si>
+    <t>Err3NV</t>
+  </si>
+  <si>
+    <t>Err2Num</t>
+  </si>
+  <si>
+    <t>Err2NV</t>
+  </si>
+  <si>
+    <t>ErrMixed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,7 +126,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -391,15 +412,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,31 +434,52 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="e">
         <f>8/0</f>
         <v>#DIV/0!</v>
@@ -454,11 +496,13 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+      <c r="E2" t="e">
+        <f>VLOOKUP("1",D1:E1,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F2" t="e">
+        <f t="shared" ref="F2:F3" si="0">SQRT(-4)</f>
+        <v>#NUM!</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -466,24 +510,47 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" t="e">
-        <f t="shared" ref="I2:I3" si="0">8/0</f>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="e">
+        <f t="shared" ref="M2:M3" si="1">8/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J2" t="e">
-        <f t="shared" ref="J2:J3" si="1">a0</f>
+      <c r="N2" t="e">
+        <f t="shared" ref="N2:N3" si="2">a0</f>
         <v>#NAME?</v>
       </c>
-      <c r="K2" t="e">
-        <f t="shared" ref="K2:K3" si="2">INT("kjk")</f>
+      <c r="O2" t="e">
+        <f t="shared" ref="O2:O3" si="3">INT("kjk")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="L2" t="e">
+      <c r="P2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q2" t="e">
+        <f>VLOOKUP("1",P1:Q1,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R2" t="e">
+        <f t="shared" ref="R2:R3" si="4">SQRT(-4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -496,37 +563,93 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="e">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="e">
         <f>8/0</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F3" t="e">
+      <c r="H3" t="e">
         <f>a0</f>
         <v>#NAME?</v>
       </c>
-      <c r="G3" t="e">
+      <c r="I3" t="e">
         <f>INT("kjk")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H3" t="e">
+      <c r="J3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I3" t="e">
-        <f t="shared" si="0"/>
+      <c r="K3" t="e">
+        <f>VLOOKUP("1",J2:K2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L3" t="e">
+        <f t="shared" ref="L2:L3" si="5">SQRT(-4)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M3" t="e">
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J3" t="e">
-        <f t="shared" si="1"/>
+      <c r="N3" t="e">
+        <f t="shared" si="2"/>
         <v>#NAME?</v>
       </c>
-      <c r="K3" t="e">
-        <f t="shared" si="2"/>
+      <c r="O3" t="e">
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="L3" t="e">
+      <c r="P3" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
+      </c>
+      <c r="Q3" t="e">
+        <f>VLOOKUP("1",P2:Q2,1)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="R3" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="S3" t="e">
+        <f t="shared" ref="S3" si="6">8/0</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S4" t="e">
+        <f t="shared" ref="S4" si="7">a0</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S5" t="e">
+        <f t="shared" ref="S5" si="8">INT("kjk")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S6" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S7" t="e">
+        <f>VLOOKUP("1",R6:S6,1)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S8" t="e">
+        <f t="shared" ref="S8" si="9">SQRT(-4)</f>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
